--- a/document/gameDB_ver1.0.xlsx
+++ b/document/gameDB_ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\BlackPotion\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0041AD75-6F3A-421F-9FF6-3E9E3C03C7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F55865-3616-4054-A23B-B0BCE9ECCA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{03D0CECF-AD05-4478-86A2-3E37155843BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{03D0CECF-AD05-4478-86A2-3E37155843BB}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestDT" sheetId="1" r:id="rId1"/>
@@ -158,12 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>의뢰 클리어시 보상
-표기방식
-(골드, 레시피등급)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>텍스트 ID</t>
   </si>
   <si>
@@ -338,6 +332,12 @@
   </si>
   <si>
     <t>BuffValue</t>
+  </si>
+  <si>
+    <t>의뢰 클리어시 보상
+표기방식
+(골드, 레시피등급,명성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -505,72 +505,69 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A05CD5-73C0-4C46-8E79-8BB9E4A89255}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -920,7 +917,7 @@
     <col min="6" max="6" width="15.59765625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.296875" customWidth="1"/>
+    <col min="9" max="9" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -928,28 +925,28 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="1"/>
@@ -962,28 +959,28 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -991,111 +988,111 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>38</v>
+      <c r="I4" s="17" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="8" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1131,17 +1128,17 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>48</v>
+      <c r="E2" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1157,16 +1154,16 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1174,54 +1171,53 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8" t="s">
-        <v>53</v>
+      <c r="B5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="16"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1232,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E22D7F-3C4C-4683-B214-9ABA0466D1C9}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
@@ -1249,82 +1245,69 @@
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-    </row>
-    <row r="3" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" s="16"/>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1338,7 +1321,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9932644-747F-497D-A476-3825023631DA}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
@@ -1353,99 +1336,88 @@
     <col min="9" max="11" width="14.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="18"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1466,7 +1438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6C0AAE-A566-4970-826A-D81B9686F399}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1484,23 +1456,23 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1513,22 +1485,22 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1536,96 +1508,96 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>87</v>
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>88</v>
+      <c r="B5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="8" t="s">
-        <v>89</v>
+      <c r="B6" s="7"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/document/gameDB_ver1.0.xlsx
+++ b/document/gameDB_ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\BlackPotion\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F55865-3616-4054-A23B-B0BCE9ECCA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9A8C07-65C7-4BA5-A9F5-C578CAC234CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{03D0CECF-AD05-4478-86A2-3E37155843BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{03D0CECF-AD05-4478-86A2-3E37155843BB}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestDT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,12 +207,6 @@
   </si>
   <si>
     <t>RecipeName</t>
-  </si>
-  <si>
-    <t>MaterialIDList</t>
-  </si>
-  <si>
-    <t>MaterialRatioList</t>
   </si>
   <si>
     <t>레시피 이름</t>
@@ -337,6 +331,22 @@
     <t>의뢰 클리어시 보상
 표기방식
 (골드, 레시피등급,명성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecipeGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseMaterialIDList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 Id 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 이름 표기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A05CD5-73C0-4C46-8E79-8BB9E4A89255}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -1010,7 +1020,7 @@
         <v>26</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="31.2" x14ac:dyDescent="0.4">
@@ -1111,7 +1121,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1132,10 +1142,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>47</v>
@@ -1161,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -1178,7 +1188,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>51</v>
@@ -1214,10 +1224,10 @@
         <v>54</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1254,10 +1264,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1279,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="D4" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1293,20 +1303,20 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1438,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6C0AAE-A566-4970-826A-D81B9686F399}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1460,19 +1470,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1492,10 +1502,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -1509,22 +1519,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -1536,16 +1546,16 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -1555,14 +1565,14 @@
       <c r="B6" s="7"/>
       <c r="C6" s="18"/>
       <c r="D6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1572,32 +1582,32 @@
       <c r="B7" s="11"/>
       <c r="C7" s="19"/>
       <c r="D7" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/document/gameDB_ver1.0.xlsx
+++ b/document/gameDB_ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\BlackPotion\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9A8C07-65C7-4BA5-A9F5-C578CAC234CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61031F31-9802-4FB7-8440-0B2BBCEA7AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{03D0CECF-AD05-4478-86A2-3E37155843BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{03D0CECF-AD05-4478-86A2-3E37155843BB}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestDT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="138">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,25 +328,187 @@
     <t>BuffValue</t>
   </si>
   <si>
+    <t>RecipeGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseMaterialIDList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 Id 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 이름 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형파티 상처약의뢰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원 하급 상처약 의뢰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형파티 마나 포션 의뢰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마탑의 마나회복약 의뢰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 파티 마나포션 의뢰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 파티 상처약 의뢰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급 상처약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급 마나회복약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급 몬스터 기피약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴치가루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>의뢰 클리어시 보상
 표기방식
-(골드, 레시피등급,명성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecipeGrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseMaterialIDList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프 Id 표기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프 이름 표기</t>
+(골드, 레시피등급)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료별 비율 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각재료들의 들어갈 비율을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나타내는 List이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞선 리스트의 순서대로 들어가진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialRatioList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001, 3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001, 3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001, 3004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전에 들어가기 전 상처약이 필요하여 의뢰를 하게 되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소량 의뢰 text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중량 의뢰 text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대량 의뢰 text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전에 들어가기 전 저희 파티의 마법사가 사용할 마나 회복 포션이 필요하여 의뢰를 하게 되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희는 작은 마을에서 운영하고 있는 병원입니다.
+현재 병원에서 사용하고 있는 상처약이 떨어져가고 있어 의뢰를 하게 되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 새로운 마법을 연구하느냐고 마탑에 있는 마나 회복약에 떨어졌습니다.
+추가 물자를 원하여 의뢰를 하게 되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 던전 레이드에 들어가기전 미리 상처약을 챙겨두기 위해서 의뢰합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 던전 레이드에 들어가기전 미리 마나회복약을 챙겨두기 위해서 의뢰합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -509,13 +671,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,6 +749,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,16 +1111,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A05CD5-73C0-4C46-8E79-8BB9E4A89255}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.59765625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
@@ -1020,7 +1219,7 @@
         <v>26</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="31.2" x14ac:dyDescent="0.4">
@@ -1104,6 +1303,162 @@
       </c>
       <c r="I8" s="12" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9">
+        <v>4001</v>
+      </c>
+      <c r="E9">
+        <v>2001</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>1002</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10">
+        <v>4101</v>
+      </c>
+      <c r="E10">
+        <v>2001</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>90</v>
+      </c>
+      <c r="H10">
+        <v>180</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>1003</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11">
+        <v>4102</v>
+      </c>
+      <c r="E11">
+        <v>2001</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>150</v>
+      </c>
+      <c r="H11">
+        <v>300</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>1004</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12">
+        <v>4002</v>
+      </c>
+      <c r="E12">
+        <v>2002</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>80</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>1005</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>4102</v>
+      </c>
+      <c r="E13">
+        <v>2002</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>120</v>
+      </c>
+      <c r="H13">
+        <v>240</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>1006</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14">
+        <v>4202</v>
+      </c>
+      <c r="E14">
+        <v>2002</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="H14">
+        <v>400</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1118,18 +1473,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5F926-470C-4026-BBFC-E92BA2EA9ED9}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59.19921875" customWidth="1"/>
-    <col min="6" max="8" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="7" max="8" width="10.69921875" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="14.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1150,7 +1506,9 @@
       <c r="E2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1176,6 +1534,9 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F3" s="22" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
@@ -1192,6 +1553,9 @@
       </c>
       <c r="E4" s="5" t="s">
         <v>51</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -1206,6 +1570,9 @@
       <c r="E5" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="F5" s="6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
@@ -1215,6 +1582,9 @@
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="15"/>
+      <c r="F6" s="23" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
@@ -1224,11 +1594,68 @@
         <v>54</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>95</v>
-      </c>
+      <c r="F7" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>2001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>2002</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>2003</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F11" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1242,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E22D7F-3C4C-4683-B214-9ABA0466D1C9}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1319,6 +1746,50 @@
         <v>67</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>3001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>3002</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>3003</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>3004</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C4:C5"/>
@@ -1331,16 +1802,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9932644-747F-497D-A476-3825023631DA}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="53.69921875" customWidth="1"/>
+    <col min="3" max="3" width="89.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="10.69921875" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="14.09765625" bestFit="1" customWidth="1"/>
@@ -1428,6 +1899,78 @@
       </c>
       <c r="C8" s="13" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>4001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>4002</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>4101</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>4102</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>4201</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>4202</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1448,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6C0AAE-A566-4970-826A-D81B9686F399}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1519,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>74</v>

--- a/document/gameDB_ver1.0.xlsx
+++ b/document/gameDB_ver1.0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\BlackPotion\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\haeseong\Unity\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61031F31-9802-4FB7-8440-0B2BBCEA7AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{03D0CECF-AD05-4478-86A2-3E37155843BB}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QuestDT" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="TextDT" sheetId="2" r:id="rId4"/>
     <sheet name="BuffDT" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="171">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,11 +510,143 @@
     <t>대형 던전 레이드에 들어가기전 미리 마나회복약을 챙겨두기 위해서 의뢰합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>바람의 정령 가루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲속의 이슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲의 기운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신비의 꽃잎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암흑 가루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용의 비늘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대지의 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별빛 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산들바람 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001, 3005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3006, 3007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲속의 이슬 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001, 3003, 3008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미스틱 미스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001, 3009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별빛의 고요 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검게 물든 각성제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용의 숨결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대지의 눈물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001, ,3003, 3010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001, 3011, 3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001, 3012, 3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 2, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 2, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4, 3, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 2, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001, 3013, 3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 3, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -686,7 +817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,6 +869,33 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -750,32 +908,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,27 +1244,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A05CD5-73C0-4C46-8E79-8BB9E4A89255}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.796875" customWidth="1"/>
+    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1298,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,14 +1327,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1218,18 +1352,18 @@
       <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
@@ -1245,16 +1379,16 @@
       <c r="H5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="F6" s="6" t="s">
@@ -1264,22 +1398,22 @@
       <c r="H6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="18"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>37</v>
       </c>
@@ -1305,7 +1439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1001</v>
       </c>
@@ -1327,11 +1461,11 @@
       <c r="H9">
         <v>60</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1002</v>
       </c>
@@ -1353,11 +1487,11 @@
       <c r="H10">
         <v>180</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1003</v>
       </c>
@@ -1379,11 +1513,11 @@
       <c r="H11">
         <v>300</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1004</v>
       </c>
@@ -1405,11 +1539,11 @@
       <c r="H12">
         <v>80</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1005</v>
       </c>
@@ -1431,11 +1565,11 @@
       <c r="H13">
         <v>240</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1006</v>
       </c>
@@ -1457,7 +1591,7 @@
       <c r="H14">
         <v>400</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="17" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1472,25 +1606,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5F926-470C-4026-BBFC-E92BA2EA9ED9}">
-  <dimension ref="A1:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.19921875" customWidth="1"/>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.25" customWidth="1"/>
     <col min="6" max="6" width="28.5" customWidth="1"/>
-    <col min="7" max="8" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1652,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1534,21 +1668,21 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="26" t="s">
         <v>58</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1558,15 +1692,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="6" t="s">
         <v>52</v>
       </c>
@@ -1574,19 +1708,19 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>53</v>
       </c>
@@ -1599,11 +1733,11 @@
       <c r="E7" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2001</v>
       </c>
@@ -1613,14 +1747,14 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2002</v>
       </c>
@@ -1633,11 +1767,11 @@
       <c r="E9" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2003</v>
       </c>
@@ -1650,12 +1784,145 @@
       <c r="E10" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="F11" s="27"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>2004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>2005</v>
+      </c>
+      <c r="C12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>2006</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>2007</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2008</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>2009</v>
+      </c>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2010</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>2011</v>
+      </c>
+      <c r="C18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1664,26 +1931,29 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F15:F18 F13" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E22D7F-3C4C-4683-B214-9ABA0466D1C9}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.796875" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +1967,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1711,31 +1981,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
         <v>65</v>
       </c>
@@ -1746,7 +2016,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3001</v>
       </c>
@@ -1757,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>3002</v>
       </c>
@@ -1768,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3003</v>
       </c>
@@ -1779,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>3004</v>
       </c>
@@ -1788,6 +2058,105 @@
       </c>
       <c r="D10">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>3005</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>3006</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>3007</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>3008</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>3009</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>3010</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>3011</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>3012</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>3013</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1797,28 +2166,29 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9932644-747F-497D-A476-3825023631DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="89.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +2199,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1839,61 +2209,61 @@
       <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C5" s="27"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>45</v>
       </c>
@@ -1901,15 +2271,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="24" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>4001</v>
       </c>
@@ -1917,7 +2287,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>4002</v>
       </c>
@@ -1925,7 +2295,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1933,23 +2303,23 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>4101</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>4102</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1957,7 +2327,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>4201</v>
       </c>
@@ -1965,7 +2335,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>4202</v>
       </c>
@@ -1988,24 +2358,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6C0AAE-A566-4970-826A-D81B9686F399}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.796875" customWidth="1"/>
-    <col min="4" max="4" width="19.796875" customWidth="1"/>
-    <col min="5" max="5" width="15.296875" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" customWidth="1"/>
-    <col min="7" max="7" width="20.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2034,7 +2404,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2057,14 +2427,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="26" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2080,14 +2450,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="6" t="s">
         <v>75</v>
       </c>
@@ -2101,12 +2471,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="18"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="6" t="s">
         <v>76</v>
       </c>
@@ -2118,12 +2488,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="19"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="10" t="s">
         <v>77</v>
       </c>
@@ -2133,7 +2503,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>87</v>
       </c>

--- a/document/gameDB_ver1.0.xlsx
+++ b/document/gameDB_ver1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16770" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="QuestDT" sheetId="1" r:id="rId1"/>
@@ -896,6 +896,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -907,9 +910,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1245,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B17" sqref="B17:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1334,7 +1334,7 @@
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1352,7 +1352,7 @@
       <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="27" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
@@ -1379,7 +1379,7 @@
       <c r="H5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1388,7 +1388,7 @@
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="F6" s="6" t="s">
@@ -1398,20 +1398,20 @@
       <c r="H6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="27"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="27"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
@@ -1593,6 +1593,61 @@
       </c>
       <c r="I14" s="17" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
@@ -1609,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1679,10 +1734,10 @@
       <c r="B4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>58</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1699,8 +1754,8 @@
       <c r="B5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="6" t="s">
         <v>52</v>
       </c>
@@ -1713,8 +1768,8 @@
         <v>0</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="15"/>
       <c r="F6" s="19" t="s">
         <v>121</v>
@@ -1832,7 +1887,7 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="26" t="s">
         <v>151</v>
       </c>
       <c r="F13" s="23" t="s">
@@ -1988,10 +2043,10 @@
       <c r="B4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2002,8 +2057,8 @@
       <c r="B5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
@@ -2172,10 +2227,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2209,9 +2264,9 @@
       <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2220,15 +2275,15 @@
       <c r="B4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -2237,13 +2292,13 @@
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
+      <c r="C5" s="28"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -2252,7 +2307,7 @@
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -2261,7 +2316,7 @@
       <c r="B7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
@@ -2295,52 +2350,117 @@
         <v>133</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>4003</v>
+      </c>
+    </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14">
+    <row r="19" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19">
         <v>4101</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C19" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15">
+    <row r="20" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>4102</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C20" s="25" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>4103</v>
+      </c>
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>4104</v>
+      </c>
+      <c r="C22" s="25"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>4105</v>
+      </c>
+      <c r="C23" s="25"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>4106</v>
+      </c>
+      <c r="C24" s="25"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="25"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28">
         <v>4201</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C28" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29">
         <v>4202</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C29" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>4205</v>
       </c>
     </row>
   </sheetData>
@@ -2434,7 +2554,7 @@
       <c r="B4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2457,7 +2577,7 @@
       <c r="B5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="6" t="s">
         <v>75</v>
       </c>
@@ -2476,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="6" t="s">
         <v>76</v>
       </c>
@@ -2493,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="28"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="10" t="s">
         <v>77</v>
       </c>
